--- a/biology/Mycologie/Olpidiaceae/Olpidiaceae.xlsx
+++ b/biology/Mycologie/Olpidiaceae/Olpidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Olpidiaceae sont une famille de champignons chytrides, considérés comme les seuls représentants connus de la division des Olpidiomycota et du sous-règne des Olpidiomyceta.
 Cette famille comprend des espèces holocarpiques dont le thalle produit un unique sporocyste et des zoospores flagellés.
-Ce sont des parasites des algues, des champignons, des mousses, des grains de pollen et des tissus végétatifs de plantes[1].
+Ce sont des parasites des algues, des champignons, des mousses, des grains de pollen et des tissus végétatifs de plantes.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 novembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 novembre 2014) :
 genre Chytridhaema
 genre Cibdelia
 genre Monochytrium
-genre Nucleophaga [3]
+genre Nucleophaga 
 genre Olpidiaster
 genre Olpidium</t>
         </is>
